--- a/verydows电商系统测试/测试用例/需求分析用例.xlsx
+++ b/verydows电商系统测试/测试用例/需求分析用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>测试需求</t>
   </si>
@@ -33,14 +33,16 @@
     <t>评审</t>
   </si>
   <si>
-    <t>1.注册页面信息显示完整，包含用户名，邮箱，设置密码，确认密码，验证码和（我已阅读并同意《吉屋用户服务协议》）字符，并显示完整。
+    <t>1.注册页面信息显示完整，包含用户名，邮箱，设置密码，确认密码，验证码和（"用户注册协议"），并显示完整。
 2.账号要符合以字母开头的5-16个字符。
 3.邮箱要符合正确邮箱的格式.
 4.设置密码要符合6到32位任意字符。
 5.确认密码要和设置密码一致。
 6.输入和图片一样的验证码。
 7.我已阅读并同意《吉屋用户服务协议》）字符必须勾选（默认是勾选的）。
-8.对不合法的登录信息有相应的错误提示。</t>
+8.对不合法的登录信息有相应的错误提示。
+9.ui和兼容性。
+10.页面的按钮的跳转</t>
   </si>
   <si>
     <t>test_case_verydows_register_function</t>
@@ -55,67 +57,379 @@
     <t>test_case_verydows_register_function_0002</t>
   </si>
   <si>
-    <t>5位以字母开头账号</t>
+    <t>5位以小写字母开头账号</t>
   </si>
   <si>
     <t>test_case_verydows_register_function_0003</t>
   </si>
   <si>
-    <t>4位以字母开头账号</t>
+    <t>5位以大写字母开头账号</t>
   </si>
   <si>
     <t>test_case_verydows_register_function_0004</t>
   </si>
   <si>
-    <t>17位以字母开头账号</t>
+    <t>6位以小写字母开头账号</t>
   </si>
   <si>
     <t>test_case_verydows_register_function_0005</t>
   </si>
   <si>
+    <t>6位以大写字母开头账号</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0006</t>
+  </si>
+  <si>
+    <t>4位以小写字母开头账号</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0007</t>
+  </si>
+  <si>
+    <t>16位以大写字母开头账号</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0008</t>
+  </si>
+  <si>
+    <t>16位以小写字母开头账号</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0009</t>
+  </si>
+  <si>
+    <t>15位以小写字母开头账号</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0010</t>
+  </si>
+  <si>
+    <t>15位以大写字母开头账号</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0011</t>
+  </si>
+  <si>
+    <t>17位以小写字母开头账号</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0012</t>
+  </si>
+  <si>
     <t>5位以数字开头账号</t>
   </si>
   <si>
-    <t>test_case_verydows_register_function_0006</t>
+    <t>test_case_verydows_register_function_0013</t>
   </si>
   <si>
     <t>5位以下划线开头账号</t>
   </si>
   <si>
-    <t>test_case_verydows_register_function_0007</t>
-  </si>
-  <si>
-    <t>不符邮箱格式</t>
-  </si>
-  <si>
-    <t>test_case_verydows_register_function_0008</t>
-  </si>
-  <si>
-    <t>5位字符密码登录</t>
-  </si>
-  <si>
-    <t>test_case_verydows_register_function_0009</t>
-  </si>
-  <si>
-    <t>33位字符密码登录</t>
-  </si>
-  <si>
-    <t>test_case_verydows_register_function_0010</t>
+    <t>test_case_verydows_register_function_0014</t>
+  </si>
+  <si>
+    <t>正确邮箱格式</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0015</t>
+  </si>
+  <si>
+    <t>错误邮箱格式</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0016</t>
+  </si>
+  <si>
+    <t>6位大写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0017</t>
+  </si>
+  <si>
+    <t>6位小写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0018</t>
+  </si>
+  <si>
+    <t>6位含有特殊字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0019</t>
+  </si>
+  <si>
+    <t>6位含有特殊、字母和数字的字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0020</t>
+  </si>
+  <si>
+    <t>6位数字密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0021</t>
+  </si>
+  <si>
+    <t>5位大写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0022</t>
+  </si>
+  <si>
+    <t>5位小写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0023</t>
+  </si>
+  <si>
+    <t>5位含有特殊字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0024</t>
+  </si>
+  <si>
+    <t>5位含有特殊、字母和数字的字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0025</t>
+  </si>
+  <si>
+    <t>5位数字密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0026</t>
+  </si>
+  <si>
+    <t>7位大写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0027</t>
+  </si>
+  <si>
+    <t>7位小写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0028</t>
+  </si>
+  <si>
+    <t>7位含有特殊字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0029</t>
+  </si>
+  <si>
+    <t>7位含有特殊、字母和数字的字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0030</t>
+  </si>
+  <si>
+    <t>7位数字密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0031</t>
+  </si>
+  <si>
+    <t>31位小写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0032</t>
+  </si>
+  <si>
+    <t>31位大写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0033</t>
+  </si>
+  <si>
+    <t>31位含有特殊字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0034</t>
+  </si>
+  <si>
+    <t>31位含有特殊、字母和数字的字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0035</t>
+  </si>
+  <si>
+    <t>31位数字密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0036</t>
+  </si>
+  <si>
+    <t>32位大写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0037</t>
+  </si>
+  <si>
+    <t>32位小写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0038</t>
+  </si>
+  <si>
+    <t>32位含有特殊字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0039</t>
+  </si>
+  <si>
+    <t>32位含有特殊、字母和数字的字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0040</t>
+  </si>
+  <si>
+    <t>32位数字密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0041</t>
+  </si>
+  <si>
+    <t>33位大写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0042</t>
+  </si>
+  <si>
+    <t>33位小写字母开头字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0043</t>
+  </si>
+  <si>
+    <t>33位含有特殊字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0044</t>
+  </si>
+  <si>
+    <t>33位含有特殊、字母和数字的字符密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0045</t>
+  </si>
+  <si>
+    <t>33位数字密码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0046</t>
   </si>
   <si>
     <t>确认密码不正确</t>
   </si>
   <si>
-    <t>test_case_verydows_register_function_0011</t>
-  </si>
-  <si>
-    <t>输入错误的验证码</t>
-  </si>
-  <si>
-    <t>test_case_verydows_register_function_0012</t>
+    <t>test_case_verydows_register_function_0047</t>
+  </si>
+  <si>
+    <t>正确的验证码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0048</t>
+  </si>
+  <si>
+    <t>错误的验证码</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0049</t>
   </si>
   <si>
     <t>不勾选复选框（必须阅读并同意用户注册协议）</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0050</t>
+  </si>
+  <si>
+    <t>账号为空</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0051</t>
+  </si>
+  <si>
+    <t>邮箱号为空</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0052</t>
+  </si>
+  <si>
+    <t>验证码为空</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0053</t>
+  </si>
+  <si>
+    <t>设置密码为空</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0054</t>
+  </si>
+  <si>
+    <t>确认密码为空</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0055</t>
+  </si>
+  <si>
+    <t>5位带有不合法字符到的账号</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0056</t>
+  </si>
+  <si>
+    <t>已注册的邮箱</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0057</t>
+  </si>
+  <si>
+    <t>已注册的用户名</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0058</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0059</t>
+  </si>
+  <si>
+    <t>点击logo或首页</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0060</t>
+  </si>
+  <si>
+    <t>全为空</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0061</t>
+  </si>
+  <si>
+    <t>IE浏览器显示和功能正常</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0062</t>
+  </si>
+  <si>
+    <t>ege浏览器显示和功能正常</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0063</t>
+  </si>
+  <si>
+    <t>火狐浏览器显示和功能正常</t>
+  </si>
+  <si>
+    <t>test_case_verydows_register_function_0064</t>
+  </si>
+  <si>
+    <t>密码加密显示</t>
   </si>
 </sst>
 </file>
@@ -731,7 +1045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,7 +1055,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,10 +1409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1130,7 +1447,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1140,7 +1457,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1150,7 +1467,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1160,7 +1477,7 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1170,11 +1487,11 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -1184,7 +1501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
@@ -1200,7 +1517,7 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1210,7 +1527,7 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1220,7 +1537,7 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1230,7 +1547,7 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1240,14 +1557,534 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="A2:A65"/>
+    <mergeCell ref="B2:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
